--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value290.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value290.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.24747996611831</v>
+        <v>0.9813833832740784</v>
       </c>
       <c r="B1">
-        <v>1.868704830450667</v>
+        <v>1.295290946960449</v>
       </c>
       <c r="C1">
-        <v>1.926608572150692</v>
+        <v>2.072923898696899</v>
       </c>
       <c r="D1">
-        <v>2.265103316534279</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.657579130572614</v>
+        <v>2.021457433700562</v>
       </c>
     </row>
   </sheetData>
